--- a/data/scheduling_DNN/predict/0.1/result10.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result10.xlsx
@@ -570,10 +570,10 @@
         <v>0.9794797897338867</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4836406707763672</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2235591262578964</v>
+        <v>0.2458564341068268</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9676339626312256</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5905616879463196</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09646609425544739</v>
+        <v>0.1421834975481033</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8928799629211426</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8752272725105286</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1512709259986877</v>
+        <v>0.0003116174775641412</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9529950618743896</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5316280722618103</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2014531344175339</v>
+        <v>0.1775501370429993</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8731439113616943</v>
       </c>
       <c r="V6" t="n">
-        <v>0.57613205909729</v>
+        <v>0.90303635597229</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08821604400873184</v>
+        <v>0.0008935582591220737</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8645679950714111</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5537946820259094</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09786945581436157</v>
+        <v>0.09658005088567734</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8625519275665283</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9021369814872742</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1497866958379745</v>
+        <v>0.001566976541653275</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9215719699859619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5912116765975952</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2359389215707779</v>
+        <v>0.1091379225254059</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8664600849151611</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5324000716209412</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002506245626136661</v>
+        <v>0.111596092581749</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8702640533447266</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.513278603553772</v>
       </c>
       <c r="W11" t="n">
-        <v>0.24099300801754</v>
+        <v>0.1274386048316956</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8581809997558594</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5362830758094788</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2300533056259155</v>
+        <v>0.1036182716488838</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9246721267700195</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5896121859550476</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07172263413667679</v>
+        <v>0.1122651621699333</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8902468681335449</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5907371044158936</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1726877242326736</v>
+        <v>0.08970610052347183</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9461069107055664</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5302137136459351</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1533430069684982</v>
+        <v>0.1729671508073807</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8925089836120605</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5313248038291931</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1054843664169312</v>
+        <v>0.1304540187120438</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.032396793365479</v>
       </c>
       <c r="V17" t="n">
-        <v>0.436027318239212</v>
+        <v>0.5141246914863586</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3556565940380096</v>
+        <v>0.2686059772968292</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8889100551605225</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8935430645942688</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1995322406291962</v>
+        <v>2.146477709175088e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8629519939422607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.95769202709198</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01668893918395042</v>
+        <v>0.008975673466920853</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9000070095062256</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4771631360054016</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1899915933609009</v>
+        <v>0.1787969470024109</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8741238117218018</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5325173139572144</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1373351216316223</v>
+        <v>0.1166950017213821</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5318021774291992</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5228970646858215</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08104617148637772</v>
+        <v>7.930103311082348e-05</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5245418548583984</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.8850066661834717</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01745081506669521</v>
+        <v>0.1299348771572113</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.525831937789917</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.944753110408783</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000917459256015718</v>
+        <v>0.1754949539899826</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5252861976623535</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9013588428497314</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0005608991486951709</v>
+        <v>0.1414306312799454</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5288469791412354</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5303571820259094</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01316765137016773</v>
+        <v>2.280712806168594e-06</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142171382904053</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.5363406538963318</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01241583190858364</v>
+        <v>0.0004894499434158206</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5158491134643555</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4677690267562866</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01567845046520233</v>
+        <v>0.002311694668605924</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5251669883728027</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4872452616691589</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0005470249452628195</v>
+        <v>0.001438057399354875</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254950523376465</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4742206335067749</v>
       </c>
       <c r="W30" t="n">
-        <v>0.009139384143054485</v>
+        <v>0.002629066118970513</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5749380588531494</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.8883450627326965</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0003085966454818845</v>
+        <v>0.09822394698858261</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.523745059967041</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.9273008704185486</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0008890525787137449</v>
+        <v>0.1628572940826416</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168280601501465</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.8851830959320068</v>
       </c>
       <c r="W33" t="n">
-        <v>0.000903269974514842</v>
+        <v>0.1356854289770126</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5223760604858398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9299529790878296</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04100469872355461</v>
+        <v>0.1661189496517181</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4899951815605164</v>
       </c>
       <c r="W35" t="n">
-        <v>0.002386730164289474</v>
+        <v>0.0006256397464312613</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5180509090423584</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4848313927650452</v>
       </c>
       <c r="W36" t="n">
-        <v>0.00344343320466578</v>
+        <v>0.00110353622585535</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5202999114990234</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4882149696350098</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01524680107831955</v>
+        <v>0.001029443461447954</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5169610977172852</v>
       </c>
       <c r="V38" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5296043157577515</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001646949676796794</v>
+        <v>0.0001598509552422911</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5169391632080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4708450436592102</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001456456026062369</v>
+        <v>0.002124667866155505</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150978565216064</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.9446436762809753</v>
       </c>
       <c r="W40" t="n">
-        <v>0.006295740604400635</v>
+        <v>0.1845096051692963</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5135898590087891</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5384815335273743</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08914662897586823</v>
+        <v>0.0006195954629220068</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.44476318359375</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4906511306762695</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0001736209524096921</v>
+        <v>0.002105703577399254</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.399029016494751</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5065574049949646</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05147235095500946</v>
+        <v>0.0115623539313674</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3880929946899414</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5297557711601257</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01454933080822229</v>
+        <v>0.0200683418661356</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3886041641235352</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5373517870903015</v>
       </c>
       <c r="W45" t="n">
-        <v>0.005963562522083521</v>
+        <v>0.02212585508823395</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879408836364746</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8888962268829346</v>
       </c>
       <c r="W46" t="n">
-        <v>0.008731628768146038</v>
+        <v>0.250956267118454</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3933541774749756</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.52532958984375</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1158887818455696</v>
+        <v>0.01741750910878181</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4579198360443115</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.8748126626014709</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02809996157884598</v>
+        <v>0.1737996339797974</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V49" t="n">
-        <v>0.569115161895752</v>
+        <v>0.9432839751243591</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0326717309653759</v>
+        <v>0.3079384863376617</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886840343475342</v>
       </c>
       <c r="V50" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5296470522880554</v>
       </c>
       <c r="W50" t="n">
-        <v>0.007124099414795637</v>
+        <v>0.0198705717921257</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3883380889892578</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5033606886863708</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03252360969781876</v>
+        <v>0.01323019806295633</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3863601684570312</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.9049290418624878</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03068112768232822</v>
+        <v>0.2689136862754822</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3927228450775146</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9022712707519531</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06401582807302475</v>
+        <v>0.2596395909786224</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5266500115394592</v>
       </c>
       <c r="W54" t="n">
-        <v>5.563067679759115e-05</v>
+        <v>0.01873227767646313</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3866229057312012</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.6060650944709778</v>
       </c>
       <c r="W55" t="n">
-        <v>0.005079343449324369</v>
+        <v>0.04815487563610077</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3870401382446289</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4920526742935181</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04573769494891167</v>
+        <v>0.0110276322811842</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.386038064956665</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.9844009280204773</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0361584834754467</v>
+        <v>0.3580381274223328</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3887989521026611</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.5904573798179626</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1831429600715637</v>
+        <v>0.0406661219894886</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3902380466461182</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.9534260630607605</v>
       </c>
       <c r="W59" t="n">
-        <v>0.05166959390044212</v>
+        <v>0.3171807527542114</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865880966186523</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.498671293258667</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004688785877078772</v>
+        <v>0.0125626428052783</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878679275512695</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.912456214427948</v>
       </c>
       <c r="W61" t="n">
-        <v>0.004997342359274626</v>
+        <v>0.2751928567886353</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8751311302185059</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.6057997941970825</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04690593108534813</v>
+        <v>0.07253936678171158</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8647689819335938</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4848549962043762</v>
       </c>
       <c r="W63" t="n">
-        <v>0.168511301279068</v>
+        <v>0.1443346291780472</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8650479316711426</v>
       </c>
       <c r="V64" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5057100057601929</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1529725790023804</v>
+        <v>0.1291237473487854</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9153280258178711</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5255714654922485</v>
       </c>
       <c r="W65" t="n">
-        <v>0.08263728022575378</v>
+        <v>0.1519101709127426</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8817720413208008</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4925267100334167</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1798424422740936</v>
+        <v>0.1515119224786758</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8586130142211914</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.9494584202766418</v>
       </c>
       <c r="W67" t="n">
-        <v>0.02908786758780479</v>
+        <v>0.008252887986600399</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8732349872589111</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8971660733222961</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1061602830886841</v>
+        <v>0.0005726968520320952</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>1.008948802947998</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.997338593006134</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1231207251548767</v>
+        <v>0.0001347969810012728</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601210117340088</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5898880958557129</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2320764660835266</v>
+        <v>0.07302583009004593</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.865354061126709</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9962796568870544</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1843294650316238</v>
+        <v>0.01714151166379452</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8860900402069092</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5854029059410095</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2025614678859711</v>
+        <v>0.09041275084018707</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.871002197265625</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4788941740989685</v>
       </c>
       <c r="W73" t="n">
-        <v>0.04577339440584183</v>
+        <v>0.1537487059831619</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8614761829376221</v>
       </c>
       <c r="V74" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9404198527336121</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2221507430076599</v>
+        <v>0.006232102867215872</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8716320991516113</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4880955815315247</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05194999650120735</v>
+        <v>0.1471002548933029</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4670277237892151</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05684654414653778</v>
+        <v>0.1573686897754669</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8873779773712158</v>
       </c>
       <c r="V77" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5110782384872437</v>
       </c>
       <c r="W77" t="n">
-        <v>0.07223615050315857</v>
+        <v>0.141601487994194</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8622767925262451</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5300760865211487</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1637336611747742</v>
+        <v>0.1103573068976402</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8673980236053467</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5083590745925903</v>
       </c>
       <c r="W79" t="n">
-        <v>0.03180777654051781</v>
+        <v>0.1289089620113373</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592221736907959</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.8776735067367554</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1627263277769089</v>
+        <v>0.0003404516901355237</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8615729808807373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.5300588607788086</v>
       </c>
       <c r="W81" t="n">
-        <v>0.166264221072197</v>
+        <v>0.1099016144871712</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5615189075469971</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5276547074317932</v>
       </c>
       <c r="W82" t="n">
-        <v>7.42822012398392e-05</v>
+        <v>0.001146784052252769</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5264058113098145</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.9189064502716064</v>
       </c>
       <c r="W83" t="n">
-        <v>0.008535262197256088</v>
+        <v>0.1540567576885223</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5268380641937256</v>
       </c>
       <c r="V84" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4900969862937927</v>
       </c>
       <c r="W84" t="n">
-        <v>0.009589295834302902</v>
+        <v>0.001349906786344945</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270020961761475</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9430583119392395</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001743705710396171</v>
+        <v>0.1731027811765671</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5174300670623779</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5131122469902039</v>
       </c>
       <c r="W86" t="n">
-        <v>0.00988928135484457</v>
+        <v>1.864357000158634e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5131609439849854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4868589639663696</v>
       </c>
       <c r="W87" t="n">
-        <v>0.002990833483636379</v>
+        <v>0.0006917941500432789</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5126879215240479</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4638078808784485</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0127364294603467</v>
+        <v>0.002389258472248912</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149610042572021</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9679421782493591</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02504663914442062</v>
+        <v>0.2051919400691986</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.513498067855835</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.8965480327606201</v>
       </c>
       <c r="W90" t="n">
-        <v>0.09587393701076508</v>
+        <v>0.1467272788286209</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5440680980682373</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.487575352191925</v>
       </c>
       <c r="W91" t="n">
-        <v>3.480045415926725e-05</v>
+        <v>0.003191430354490876</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.514362096786499</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5372758507728577</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01800245232880116</v>
+        <v>0.0005250401445664465</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5152039527893066</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5313811302185059</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002521576825529337</v>
+        <v>0.0002617010613903403</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5121791362762451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.9567816853523254</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003490827279165387</v>
+        <v>0.1976714283227921</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5151128768920898</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5233040452003479</v>
       </c>
       <c r="W95" t="n">
-        <v>0.006318751256912947</v>
+        <v>6.709523586323485e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5684380531311035</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5341824889183044</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0002666767977643758</v>
+        <v>0.001173443626612425</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5167791843414307</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4848206639289856</v>
       </c>
       <c r="W97" t="n">
-        <v>0.002060485770925879</v>
+        <v>0.001021347008645535</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.49256432056427</v>
       </c>
       <c r="W98" t="n">
-        <v>0.000109908840386197</v>
+        <v>0.0004945134278386831</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159130096435547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4686452746391296</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02862765267491341</v>
+        <v>0.002234238665550947</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5167579650878906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.8754907250404358</v>
       </c>
       <c r="W100" t="n">
-        <v>0.04916635900735855</v>
+        <v>0.1286891996860504</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5163929462432861</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.508766770362854</v>
       </c>
       <c r="W101" t="n">
-        <v>0.09020694345235825</v>
+        <v>5.815855911350809e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4155259132385254</v>
       </c>
       <c r="V102" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5297430157661438</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01850017718970776</v>
+        <v>0.01304554659873247</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3955559730529785</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.8972496390342712</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0437217652797699</v>
+        <v>0.2516965270042419</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.394136905670166</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4846273064613342</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1745867878198624</v>
+        <v>0.008188512176275253</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4081318378448486</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.8897233009338379</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0007780713494867086</v>
+        <v>0.2319303303956985</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3886780738830566</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5516579151153564</v>
       </c>
       <c r="W106" t="n">
-        <v>0.004922095220535994</v>
+        <v>0.02656242810189724</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844249248504639</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8890063762664795</v>
       </c>
       <c r="W107" t="n">
-        <v>0.007437871303409338</v>
+        <v>0.2546024322509766</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4172110557556152</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5295114517211914</v>
       </c>
       <c r="W108" t="n">
-        <v>9.919597687257919e-06</v>
+        <v>0.01261137891560793</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.8904677629470825</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01176612079143524</v>
+        <v>0.2475867420434952</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3875470161437988</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5020303130149841</v>
       </c>
       <c r="W110" t="n">
-        <v>0.05606868490576744</v>
+        <v>0.01310642529278994</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.390531063079834</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4786682724952698</v>
       </c>
       <c r="W111" t="n">
-        <v>0.05476898327469826</v>
+        <v>0.007768167648464441</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3919789791107178</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4845847487449646</v>
       </c>
       <c r="W112" t="n">
-        <v>0.004324266221374273</v>
+        <v>0.008575828745961189</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4775419235229492</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1817085593938828</v>
+        <v>0.007697084452956915</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4471960067749023</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.478219211101532</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0001248181652044877</v>
+        <v>0.0009624392259865999</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3903019428253174</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4919962882995605</v>
       </c>
       <c r="W115" t="n">
-        <v>0.05232034251093864</v>
+        <v>0.01034174021333456</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4055271148681641</v>
       </c>
       <c r="V116" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9647218585014343</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1095943674445152</v>
+        <v>0.3126987516880035</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4930383563041687</v>
       </c>
       <c r="W117" t="n">
-        <v>0.05695266649127007</v>
+        <v>0.01084002200514078</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.395211935043335</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.6062377095222473</v>
       </c>
       <c r="W118" t="n">
-        <v>0.005653864238411188</v>
+        <v>0.04453187808394432</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5324001312255859</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01571283116936684</v>
+        <v>0.0200732909142971</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4368448257446289</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5022828578948975</v>
       </c>
       <c r="W120" t="n">
-        <v>0.03398765251040459</v>
+        <v>0.004282135982066393</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3910868167877197</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4682642221450806</v>
       </c>
       <c r="W121" t="n">
-        <v>0.002025130204856396</v>
+        <v>0.005956351757049561</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8798351287841797</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5098965167999268</v>
       </c>
       <c r="W122" t="n">
-        <v>0.06457909196615219</v>
+        <v>0.1368545740842819</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9314870834350586</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.9301058650016785</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1428390443325043</v>
+        <v>1.90776427189121e-06</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8852450847625732</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.9189727902412415</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1697839796543121</v>
+        <v>0.001137558137997985</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734269142150879</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4686943292617798</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1032762303948402</v>
+        <v>0.1638084650039673</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8742849826812744</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.896855890750885</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1920755207538605</v>
+        <v>0.0005094459047541022</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873403787612915</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.5351942777633667</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1048134565353394</v>
+        <v>0.1143856719136238</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8593220710754395</v>
       </c>
       <c r="V128" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5299081802368164</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1608569324016571</v>
+        <v>0.1085135117173195</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8638341426849365</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5898658037185669</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1311109811067581</v>
+        <v>0.07505865395069122</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8781170845031738</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4363065361976624</v>
+        <v>1.003469824790955</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1951965540647507</v>
+        <v>0.01571330986917019</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8650071620941162</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5324263572692871</v>
       </c>
       <c r="W131" t="n">
-        <v>0.08941987156867981</v>
+        <v>0.1106099933385849</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8964998722076416</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.949812114238739</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04990010336041451</v>
+        <v>0.00284219509921968</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8889548778533936</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5113810300827026</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2055257111787796</v>
+        <v>0.1425620168447495</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8646140098571777</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.48561692237854</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2359721958637238</v>
+        <v>0.1436387896537781</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8637728691101074</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9919261932373047</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1650167554616928</v>
+        <v>0.01642327383160591</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9245738983154297</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5299484729766846</v>
       </c>
       <c r="W136" t="n">
-        <v>0.09333478659391403</v>
+        <v>0.1557292193174362</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8660600185394287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.474732518196106</v>
+        <v>0.920975387096405</v>
       </c>
       <c r="W137" t="n">
-        <v>0.15313720703125</v>
+        <v>0.00301569770090282</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8682930469512939</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9449436664581299</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1868533492088318</v>
+        <v>0.005875317379832268</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8637721538543701</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9316802620887756</v>
       </c>
       <c r="W139" t="n">
-        <v>0.06707695871591568</v>
+        <v>0.004611511249095201</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9180891513824463</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.8983829617500305</v>
       </c>
       <c r="W140" t="n">
-        <v>0.05443371459841728</v>
+        <v>0.0003883339231833816</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8653109073638916</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.9273084402084351</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1511427313089371</v>
+        <v>0.003843693993985653</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5221939086914062</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.8965045809745789</v>
       </c>
       <c r="W142" t="n">
-        <v>0.007473604287952185</v>
+        <v>0.1401084810495377</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5186688899993896</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.8976351022720337</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0009831953793764114</v>
+        <v>0.1436153948307037</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5193691253662109</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5068565607070923</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01039057970046997</v>
+        <v>0.0001565642742207274</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5721490383148193</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5311275720596313</v>
       </c>
       <c r="W145" t="n">
-        <v>0.05970171466469765</v>
+        <v>0.001682760659605265</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5216062068939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5252670645713806</v>
       </c>
       <c r="W146" t="n">
-        <v>0.04413306713104248</v>
+        <v>1.340187918685842e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5303308963775635</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9309404492378235</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0006783153512515128</v>
+        <v>0.1604880094528198</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197420120239258</v>
       </c>
       <c r="V148" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4879627227783203</v>
       </c>
       <c r="W148" t="n">
-        <v>0.04713236913084984</v>
+        <v>0.001009923173114657</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5183150768280029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5060420036315918</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003580475226044655</v>
+        <v>0.0001506283297203481</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5188820362091064</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5260550379753113</v>
       </c>
       <c r="W150" t="n">
-        <v>0.00106476922519505</v>
+        <v>5.145195609657094e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5194129943847656</v>
       </c>
       <c r="V151" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9048479795455933</v>
       </c>
       <c r="W151" t="n">
-        <v>0.002378891920670867</v>
+        <v>0.1485601216554642</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5183200836181641</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9453793168067932</v>
       </c>
       <c r="W152" t="n">
-        <v>0.006828762590885162</v>
+        <v>0.1823795884847641</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5253081321716309</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9208881258964539</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02154291979968548</v>
+        <v>0.15648353099823</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5175631046295166</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4844980239868164</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0106976730749011</v>
+        <v>0.001093299593776464</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5535330772399902</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5901199579238892</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01380833890289068</v>
+        <v>0.001338599831797183</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5701320171356201</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.501106858253479</v>
       </c>
       <c r="W156" t="n">
-        <v>0.00987490639090538</v>
+        <v>0.004764472600072622</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5196771621704102</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4681462645530701</v>
       </c>
       <c r="W157" t="n">
-        <v>0.006001264322549105</v>
+        <v>0.002655433490872383</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214629173278809</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4674339890480042</v>
       </c>
       <c r="W158" t="n">
-        <v>0.00399343715980649</v>
+        <v>0.002919125137850642</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162808895111084</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4680400490760803</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01982920616865158</v>
+        <v>0.002327178604900837</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5180668830871582</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.5905635952949524</v>
       </c>
       <c r="W160" t="n">
-        <v>0.05249576270580292</v>
+        <v>0.005255773197859526</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5511000156402588</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4678511023521423</v>
       </c>
       <c r="W161" t="n">
-        <v>0.005320711992681026</v>
+        <v>0.006930381525307894</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945629596710205</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.8972257375717163</v>
       </c>
       <c r="W162" t="n">
-        <v>0.05449993163347244</v>
+        <v>0.2526698708534241</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3912858963012695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9203715324401855</v>
       </c>
       <c r="W163" t="n">
-        <v>0.002000680193305016</v>
+        <v>0.2799316048622131</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3917369842529297</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5516250133514404</v>
       </c>
       <c r="W164" t="n">
-        <v>0.001960218884050846</v>
+        <v>0.02556418254971504</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3942949771881104</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4773433208465576</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01194182969629765</v>
+        <v>0.006897027604281902</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4124469757080078</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6420996189117432</v>
+        <v>1.067911982536316</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05274033546447754</v>
+        <v>0.4296343624591827</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3934979438781738</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4844578504562378</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01282753795385361</v>
+        <v>0.008273704908788204</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3904471397399902</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4771349430084229</v>
       </c>
       <c r="W168" t="n">
-        <v>0.05253198742866516</v>
+        <v>0.007514775265008211</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3929500579833984</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.9115856885910034</v>
       </c>
       <c r="W169" t="n">
-        <v>0.110369548201561</v>
+        <v>0.2689829170703888</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.8955562114715576</v>
       </c>
       <c r="W170" t="n">
-        <v>0.001915128203108907</v>
+        <v>0.253082662820816</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917419910430908</v>
       </c>
       <c r="V171" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8895938992500305</v>
       </c>
       <c r="W171" t="n">
-        <v>0.007082213182002306</v>
+        <v>0.2478565275669098</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4212939739227295</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5133625864982605</v>
       </c>
       <c r="W172" t="n">
-        <v>0.000973054557107389</v>
+        <v>0.008476629853248596</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3928179740905762</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4714722633361816</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01068905647844076</v>
+        <v>0.006186497397720814</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5526162981987</v>
       </c>
       <c r="W174" t="n">
-        <v>0.006905212067067623</v>
+        <v>0.02545183151960373</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3947649002075195</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.8760719895362854</v>
       </c>
       <c r="W175" t="n">
-        <v>2.178240902139805e-05</v>
+        <v>0.2316565215587616</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3946590423583984</v>
       </c>
       <c r="V176" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5061303377151489</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01226573809981346</v>
+        <v>0.01242585014551878</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4033279418945312</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8906443119049072</v>
       </c>
       <c r="W177" t="n">
-        <v>0.001498083234764636</v>
+        <v>0.2374772429466248</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3978321552276611</v>
       </c>
       <c r="V178" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5274668335914612</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1753251403570175</v>
+        <v>0.01680514961481094</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914198875427246</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.8856314420700073</v>
       </c>
       <c r="W179" t="n">
-        <v>0.08559203892946243</v>
+        <v>0.2442450672388077</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4155261516571045</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5905247330665588</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0004201878618914634</v>
+        <v>0.0306245032697916</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4084370136260986</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4722373485565186</v>
       </c>
       <c r="W181" t="n">
-        <v>0.004289007280021906</v>
+        <v>0.004070482682436705</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8756601810455322</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5059823989868164</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1639730036258698</v>
+        <v>0.1366616636514664</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V183" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.477171003818512</v>
       </c>
       <c r="W183" t="n">
-        <v>0.006800799630582333</v>
+        <v>0.1740666031837463</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9345049858093262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5278627872467041</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2150283306837082</v>
+        <v>0.1653578728437424</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8672759532928467</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5311698317527771</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1711050719022751</v>
+        <v>0.1129673272371292</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.868955135345459</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5071046948432922</v>
       </c>
       <c r="W186" t="n">
-        <v>0.102895513176918</v>
+        <v>0.1309357434511185</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8733510971069336</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4677332639694214</v>
       </c>
       <c r="W187" t="n">
-        <v>0.04854646325111389</v>
+        <v>0.1645258218050003</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9259741306304932</v>
       </c>
       <c r="V188" t="n">
-        <v>0.630542516708374</v>
+        <v>0.5523138642311096</v>
       </c>
       <c r="W188" t="n">
-        <v>0.08727984130382538</v>
+        <v>0.1396219879388809</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8681478500366211</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5531713962554932</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1629363596439362</v>
+        <v>0.09921016544103622</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8662369251251221</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4778780937194824</v>
       </c>
       <c r="W190" t="n">
-        <v>0.0985180139541626</v>
+        <v>0.1508225798606873</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8891890048980713</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5296353697776794</v>
       </c>
       <c r="W191" t="n">
-        <v>0.07324989140033722</v>
+        <v>0.1292788237333298</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9151740074157715</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.9833756685256958</v>
       </c>
       <c r="W192" t="n">
-        <v>0.06467042863368988</v>
+        <v>0.004651466384530067</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8647229671478271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.955097496509552</v>
       </c>
       <c r="W193" t="n">
-        <v>0.00211078324355185</v>
+        <v>0.008167555555701256</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8653371334075928</v>
       </c>
       <c r="V194" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5071023106575012</v>
       </c>
       <c r="W194" t="n">
-        <v>0.00283760204911232</v>
+        <v>0.128332182765007</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8630771636962891</v>
       </c>
       <c r="V195" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5900495648384094</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1535828858613968</v>
+        <v>0.07454407215118408</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9223558902740479</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5002560615539551</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2364136874675751</v>
+        <v>0.1781682670116425</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.863368034362793</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4871950745582581</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1593623459339142</v>
+        <v>0.141506090760231</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8847129344940186</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5392505526542664</v>
       </c>
       <c r="W198" t="n">
-        <v>0.07029729336500168</v>
+        <v>0.1193442568182945</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.862015962600708</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4731537103652954</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1320360749959946</v>
+        <v>0.1512138545513153</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.916085958480835</v>
       </c>
       <c r="V200" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.927408754825592</v>
       </c>
       <c r="W200" t="n">
-        <v>0.02630577608942986</v>
+        <v>0.0001282057201024145</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8855190277099609</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9626975059509277</v>
       </c>
       <c r="W201" t="n">
-        <v>0.06980420649051666</v>
+        <v>0.005956517532467842</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5186710357666016</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4951576590538025</v>
       </c>
       <c r="W202" t="n">
-        <v>0.001037967507727444</v>
+        <v>0.0005528788897208869</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5278110504150391</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.8916202187538147</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0007176733925007284</v>
+        <v>0.1323571056127548</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5287308692932129</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.927864670753479</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002242004498839378</v>
+        <v>0.1593077927827835</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5565071105957031</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.8671461343765259</v>
       </c>
       <c r="W205" t="n">
-        <v>0.006982745137065649</v>
+        <v>0.09649660438299179</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5174281597137451</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.8979020714759827</v>
       </c>
       <c r="W206" t="n">
-        <v>0.002638897858560085</v>
+        <v>0.144760400056839</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5194098949432373</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5325661897659302</v>
       </c>
       <c r="W207" t="n">
-        <v>0.003817214630544186</v>
+        <v>0.0001730880903778598</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5184791088104248</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.8833146691322327</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01914267055690289</v>
+        <v>0.1331049799919128</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5168070793151855</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5302596688270569</v>
       </c>
       <c r="W209" t="n">
-        <v>0.011872548609972</v>
+        <v>0.0001809721579775214</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5709750652313232</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4871044754981995</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0003677557979244739</v>
+        <v>0.007034275680780411</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5220320224761963</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5058924555778503</v>
       </c>
       <c r="W211" t="n">
-        <v>0.00446467287838459</v>
+        <v>0.0002604856272228062</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5218250751495361</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4685230255126953</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01046112924814224</v>
+        <v>0.002841108478605747</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5204401016235352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5510107278823853</v>
       </c>
       <c r="W213" t="n">
-        <v>0.007126247510313988</v>
+        <v>0.000934563169721514</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.521388053894043</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4870027899742126</v>
       </c>
       <c r="W214" t="n">
-        <v>0.003982122987508774</v>
+        <v>0.001182346371933818</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5228838920593262</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8898645043373108</v>
       </c>
       <c r="W215" t="n">
-        <v>0.009703920222818851</v>
+        <v>0.1346747726202011</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5268149375915527</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4873775839805603</v>
       </c>
       <c r="W216" t="n">
-        <v>0.003898855065926909</v>
+        <v>0.001555304857902229</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5190198421478271</v>
       </c>
       <c r="V217" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5199360251426697</v>
       </c>
       <c r="W217" t="n">
-        <v>0.002477788366377354</v>
+        <v>8.393913049076218e-07</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.518934965133667</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5121195912361145</v>
       </c>
       <c r="W218" t="n">
-        <v>0.002929110312834382</v>
+        <v>4.644932050723583e-05</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.522468090057373</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5243961811065674</v>
       </c>
       <c r="W219" t="n">
-        <v>0.007473459932953119</v>
+        <v>3.717535037139896e-06</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5221879482269287</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.502347469329834</v>
       </c>
       <c r="W220" t="n">
-        <v>0.004608528688549995</v>
+        <v>0.0003936446155421436</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.57470703125</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5020975470542908</v>
       </c>
       <c r="W221" t="n">
-        <v>3.348402242409065e-05</v>
+        <v>0.005272137001156807</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3919291496276855</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4938222169876099</v>
       </c>
       <c r="W222" t="n">
-        <v>0.007025639992207289</v>
+        <v>0.01038219686597586</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3895421028137207</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4787444472312927</v>
       </c>
       <c r="W223" t="n">
-        <v>0.004102481063455343</v>
+        <v>0.007957058027386665</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3918740749359131</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.4836509823799133</v>
       </c>
       <c r="W224" t="n">
-        <v>0.005495004821568727</v>
+        <v>0.008423000574111938</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.390617847442627</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9521514177322388</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03172954171895981</v>
+        <v>0.3153199553489685</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3914999961853027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4788715839385986</v>
       </c>
       <c r="W226" t="n">
-        <v>0.007133479695767164</v>
+        <v>0.007633794564753771</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4559750556945801</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5911014080047607</v>
       </c>
       <c r="W227" t="n">
-        <v>0.002044666791334748</v>
+        <v>0.01825913041830063</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.394665002822876</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5410484075546265</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001677378546446562</v>
+        <v>0.02142810076475143</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3966531753540039</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.5902623534202576</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1781412959098816</v>
+        <v>0.03748451545834541</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3929951190948486</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5133026838302612</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02565510384738445</v>
+        <v>0.01447391044348478</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3921401500701904</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4777159094810486</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01251709554344416</v>
+        <v>0.007323210593312979</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4185080528259277</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.8869406580924988</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05761419609189034</v>
+        <v>0.2194291055202484</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4497950077056885</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4736871123313904</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1394112557172775</v>
+        <v>0.0005708326352760196</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3949410915374756</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5038185119628906</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03004422225058079</v>
+        <v>0.01185429282486439</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956999778747559</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4779014587402344</v>
       </c>
       <c r="W235" t="n">
-        <v>0.005002640187740326</v>
+        <v>0.006757083348929882</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3971719741821289</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5133147835731506</v>
       </c>
       <c r="W236" t="n">
-        <v>0.03036514297127724</v>
+        <v>0.01348915230482817</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3914217948913574</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8778436183929443</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01260415092110634</v>
+        <v>0.2366061955690384</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898739814758301</v>
       </c>
       <c r="V238" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4905852675437927</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0262223556637764</v>
+        <v>0.01014276314526796</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.9107046127319336</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06390644609928131</v>
+        <v>0.2701865434646606</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873860836029053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4678369760513306</v>
       </c>
       <c r="W240" t="n">
-        <v>7.245651795528829e-05</v>
+        <v>0.006472345907241106</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3955919742584229</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5905355215072632</v>
       </c>
       <c r="W241" t="n">
-        <v>0.02488386258482933</v>
+        <v>0.03800298646092415</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8959829807281494</v>
       </c>
       <c r="V242" t="n">
-        <v>0.480756551027298</v>
+        <v>0.88023841381073</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1724129915237427</v>
+        <v>0.0002478913811501116</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8909528255462646</v>
       </c>
       <c r="V243" t="n">
-        <v>0.624285101890564</v>
+        <v>0.9400728344917297</v>
       </c>
       <c r="W243" t="n">
-        <v>0.07111167162656784</v>
+        <v>0.002412775298580527</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9313669204711914</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.903902530670166</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2162165194749832</v>
+        <v>0.0007542927050963044</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8746728897094727</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.477067232131958</v>
       </c>
       <c r="W245" t="n">
-        <v>0.06276659667491913</v>
+        <v>0.1580902636051178</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8677859306335449</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9175967574119568</v>
       </c>
       <c r="W246" t="n">
-        <v>0.05936344340443611</v>
+        <v>0.002481118543073535</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8777871131896973</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.8958647847175598</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1069863215088844</v>
+        <v>0.0003268021973781288</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9214739799499512</v>
       </c>
       <c r="V248" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4787818789482117</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1735188066959381</v>
+        <v>0.1959763020277023</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.872593879699707</v>
       </c>
       <c r="V249" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.876054048538208</v>
       </c>
       <c r="W249" t="n">
-        <v>0.002961730351671576</v>
+        <v>1.197276833408978e-05</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8679699897766113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.9532096385955811</v>
       </c>
       <c r="W250" t="n">
-        <v>0.09945171326398849</v>
+        <v>0.007265797816216946</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8824689388275146</v>
       </c>
       <c r="V251" t="n">
-        <v>0.561543881893158</v>
+        <v>0.881633996963501</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1029928922653198</v>
+        <v>6.971279162826249e-07</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9217450618743896</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5899407267570496</v>
       </c>
       <c r="W252" t="n">
-        <v>0.158559188246727</v>
+        <v>0.1100941151380539</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8927731513977051</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5312869548797607</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1152387261390686</v>
+        <v>0.13067227602005</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8702328205108643</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.474102795124054</v>
       </c>
       <c r="W254" t="n">
-        <v>0.135776162147522</v>
+        <v>0.156919002532959</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8720419406890869</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.5072866678237915</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1583007574081421</v>
+        <v>0.1330464035272598</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9195168018341064</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5297056436538696</v>
       </c>
       <c r="W256" t="n">
-        <v>0.08702856302261353</v>
+        <v>0.1519527435302734</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8811490535736084</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.553398609161377</v>
       </c>
       <c r="W257" t="n">
-        <v>0.01813572458922863</v>
+        <v>0.1074203550815582</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8789699077606201</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.881196141242981</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1964427381753922</v>
+        <v>4.956115390086779e-06</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818638324737549</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5084691643714905</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1987701654434204</v>
+        <v>0.1394235789775848</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9344041347503662</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.490338146686554</v>
       </c>
       <c r="W260" t="n">
-        <v>0.07498303055763245</v>
+        <v>0.1971946060657501</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8799490928649902</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9059252738952637</v>
       </c>
       <c r="W261" t="n">
-        <v>0.06705065816640854</v>
+        <v>0.0006747620063833892</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5291008949279785</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5503801703453064</v>
       </c>
       <c r="W262" t="n">
-        <v>0.005703609436750412</v>
+        <v>0.0004528075514826924</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5541608333587646</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5088598132133484</v>
       </c>
       <c r="W263" t="n">
-        <v>0.003918015863746405</v>
+        <v>0.002052182331681252</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5253040790557861</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.98463374376297</v>
       </c>
       <c r="W264" t="n">
-        <v>0.004575742874294519</v>
+        <v>0.2109837383031845</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5294609069824219</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5082844495773315</v>
       </c>
       <c r="W265" t="n">
-        <v>0.00501722889021039</v>
+        <v>0.0004484423552639782</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4784876704216003</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002412265865132213</v>
+        <v>0.002074101008474827</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523688793182373</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.490095317363739</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004346719011664391</v>
+        <v>0.001128521631471813</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5260989665985107</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5904573202133179</v>
       </c>
       <c r="W268" t="n">
-        <v>0.004611636511981487</v>
+        <v>0.004141997545957565</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240709781646729</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5073830485343933</v>
       </c>
       <c r="W269" t="n">
-        <v>0.007754184305667877</v>
+        <v>0.0002784869866445661</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5618979930877686</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4864798784255981</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0157568845897913</v>
+        <v>0.005687891971319914</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5251791477203369</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9462787508964539</v>
       </c>
       <c r="W271" t="n">
-        <v>0.007948564365506172</v>
+        <v>0.1773248761892319</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325028896331787</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4873684048652649</v>
       </c>
       <c r="W272" t="n">
-        <v>0.008713542483747005</v>
+        <v>0.002037121681496501</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5240340232849121</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4871103763580322</v>
       </c>
       <c r="W273" t="n">
-        <v>0.002306012436747551</v>
+        <v>0.001363355666399002</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5308098793029785</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.5254884958267212</v>
       </c>
       <c r="W274" t="n">
-        <v>0.002026187255978584</v>
+        <v>2.831712299666833e-05</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5849809646606445</v>
       </c>
       <c r="V275" t="n">
-        <v>0.551414966583252</v>
+        <v>0.9158341288566589</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001126676215790212</v>
+        <v>0.1094638183712959</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251448154449463</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4853292107582092</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0007575834169983864</v>
+        <v>0.001585282385349274</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5267179012298584</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.950594961643219</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01489993929862976</v>
+        <v>0.1796717643737793</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216169357299805</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.5133205652236938</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02033781073987484</v>
+        <v>6.882976595079526e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280008316040039</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4990355372428894</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0133171770721674</v>
+        <v>0.0008389882859773934</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.52069091796875</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4784773588180542</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01898252591490746</v>
+        <v>0.001781984581612051</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5260829925537109</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4685865044593811</v>
       </c>
       <c r="W281" t="n">
-        <v>0.004998661112040281</v>
+        <v>0.003305846126750112</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4288549423217773</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.4778276085853577</v>
       </c>
       <c r="W282" t="n">
-        <v>0.09219413995742798</v>
+        <v>0.00239832210354507</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983218669891357</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4677879214286804</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05557242408394814</v>
+        <v>0.004825532902032137</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3990941047668457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5025109648704529</v>
       </c>
       <c r="W284" t="n">
-        <v>0.0505741685628891</v>
+        <v>0.01069504674524069</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3994898796081543</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.508949339389801</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05057331174612045</v>
+        <v>0.01198137365281582</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3976750373840332</v>
       </c>
       <c r="V286" t="n">
-        <v>0.43533855676651</v>
+        <v>0.8959009051322937</v>
       </c>
       <c r="W286" t="n">
-        <v>0.001418540719896555</v>
+        <v>0.2482290118932724</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3977408409118652</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.946112334728241</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06212267652153969</v>
+        <v>0.3007113039493561</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986451625823975</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.9514449238777161</v>
       </c>
       <c r="W288" t="n">
-        <v>0.000433289649663493</v>
+        <v>0.3055875897407532</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025769233703613</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4880458116531372</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04942568764090538</v>
+        <v>0.007304931059479713</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3969740867614746</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9313068985939026</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01101812068372965</v>
+        <v>0.2855115532875061</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989620208740234</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4877471327781677</v>
       </c>
       <c r="W291" t="n">
-        <v>0.003433657111600041</v>
+        <v>0.007882796227931976</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3971779346466064</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9351864457130432</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05139729753136635</v>
+        <v>0.2894531488418579</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3984119892120361</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.8793100714683533</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002530971774831414</v>
+        <v>0.2312629669904709</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.394752025604248</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5011325478553772</v>
       </c>
       <c r="W294" t="n">
-        <v>0.003939262125641108</v>
+        <v>0.0113168153911829</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961420059204102</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4777474403381348</v>
       </c>
       <c r="W295" t="n">
-        <v>0.05180500447750092</v>
+        <v>0.006659446749836206</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3942232131958008</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5394392609596252</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02571914531290531</v>
+        <v>0.02108770050108433</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3977489471435547</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8778082132339478</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0002508308389224112</v>
+        <v>0.2304569035768509</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5238003730773926</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06778739392757416</v>
+        <v>0.01536519918590784</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4500770568847656</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4681097865104675</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01198116410523653</v>
+        <v>0.0003251793386880308</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019060134887695</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5225549936294556</v>
       </c>
       <c r="W300" t="n">
-        <v>0.002832866972312331</v>
+        <v>0.01455617602914572</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.399806022644043</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.8978519439697266</v>
       </c>
       <c r="W301" t="n">
-        <v>0.02875939197838306</v>
+        <v>0.2480497360229492</v>
       </c>
     </row>
     <row r="302" spans="1:23">
